--- a/Sqlite/Database/Inventory.xlsx
+++ b/Sqlite/Database/Inventory.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,6 +484,298 @@
         <is>
           <t>BalanceQuantity</t>
         </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>001</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>RM</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>BMW</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>PN001</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Alice</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>10</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2023-09-17</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>2023-09-17</t>
+        </is>
+      </c>
+      <c r="J2" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>RM</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>BMW</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>PN00144455555677555</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Alice</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="n">
+        <v>60</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>2023-09-17</t>
+        </is>
+      </c>
+      <c r="J3" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>002</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>RM</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>BMW</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>PN002</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Alice</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="n">
+        <v>30</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>2023-09-17</t>
+        </is>
+      </c>
+      <c r="J4" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>002</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>RM</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>BMW</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>PN002000056</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Alice</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="n">
+        <v>30</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>2023-09-17</t>
+        </is>
+      </c>
+      <c r="J5" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>002</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>RM</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>BMW</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>PN001000000001</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Helen</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>20</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2023-09-17</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>20</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>2023-09-17</t>
+        </is>
+      </c>
+      <c r="J6" t="n">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>002</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>RM</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>BMW</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>PN001ABCDEFGQDEDF</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Alice</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>2023-09-17</t>
+        </is>
+      </c>
+      <c r="J7" t="n">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>002</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>RM</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>BMW</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>PN00100000000ABCDEFEAFGAE</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Alice</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="n">
+        <v>1111111111</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>2023-09-17</t>
+        </is>
+      </c>
+      <c r="J8" t="n">
+        <v>1111111111</v>
       </c>
     </row>
   </sheetData>
@@ -497,7 +789,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -532,6 +824,731 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>初次入库</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>PN001</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Alice</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>50</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2023-09-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>初次入库</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>PN00144455555677555</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Alice</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>60</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>2023-09-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>初次入库</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>PN002</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Alice</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>30</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>2023-09-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>入库</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>PN002</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Alice</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>30</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>2023-09-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>初次入库</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>PN002000056</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Alice</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>30</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>2023-09-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>出库</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>PN001</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Alice</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>2</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>2023-09-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>入库</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>PN001</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Alice</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>10</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>2023-09-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>出库</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>PN001</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Alice</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>10</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>2023-09-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>入库</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>PN001</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Alice</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>10</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>2023-09-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>初次入库</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>PN001000000001</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Alice</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>2023-09-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>入库</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>PN001000000001</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Alice</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>10</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>2023-09-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>入库</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>PN001000000001</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Alice</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>10</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>2023-09-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>入库</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>PN001000000001</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Alice</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>10</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>2023-09-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>入库</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>PN001000000001</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Alice</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>10</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>2023-09-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>入库</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>PN001000000001</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Alice</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>10</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>2023-09-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>入库</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>PN001000000001</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Alice</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>10</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>2023-09-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>入库</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>PN001000000001</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Alice</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>10</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>2023-09-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>入库</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>PN001000000001</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Alice</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>10</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>2023-09-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>入库</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>PN001000000001</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Alice</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>10</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>2023-09-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>入库</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>PN001000000001</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Alice</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>10</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>2023-09-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>入库</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>PN001000000001</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Alice</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>10</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>2023-09-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>入库</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>PN001000000001</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Alice</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>10</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>2023-09-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>入库</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>PN001000000001</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Alice</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>10</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>2023-09-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>入库</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>PN001000000001</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Alice</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>10</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>2023-09-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>入库</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>PN001000000001</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Alice</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>20</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>2023-09-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>入库</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>PN001000000001</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Alice</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>20</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>2023-09-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>出库</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>PN001000000001</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Helen</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>20</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>2023-09-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>初次入库</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>PN001ABCDEFGQDEDF</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Alice</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>2023-09-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>初次入库</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>PN00100000000ABCDEFEAFGAE</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Alice</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>1111111111</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>2023-09-17</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Sqlite/Database/Inventory.xlsx
+++ b/Sqlite/Database/Inventory.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -764,8 +764,14 @@
           <t>Alice</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
+      <c r="F8" t="n">
+        <v>20</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2023-09-17</t>
+        </is>
+      </c>
       <c r="H8" t="n">
         <v>1111111111</v>
       </c>
@@ -775,7 +781,47 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>1111111111</v>
+        <v>1111111091</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>003</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>RM</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>BMW</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>PN0345</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Alice</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="n">
+        <v>20</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>2023-09-17</t>
+        </is>
+      </c>
+      <c r="J9" t="n">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -789,7 +835,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1549,6 +1595,56 @@
         </is>
       </c>
     </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>出库</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>PN00100000000ABCDEFEAFGAE</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Alice</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>20</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>2023-09-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>初次入库</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>PN0345</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Alice</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>20</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>2023-09-17</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
